--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/64_Osmaniye_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/64_Osmaniye_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60AC0068-58A4-482F-AEAC-251E16D8E0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF065ACE-FF36-4343-B062-71234EC23A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" xr2:uid="{94445544-FF2B-455B-B803-260CD61582D2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" xr2:uid="{78B7DD59-534D-4035-9A2B-C8D69AD7EC64}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -899,14 +899,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{980E424A-04E4-4DAE-B168-0800DC68E9D4}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{077B7B70-DAA2-4767-93AC-249B6D9FAFCF}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{A64D723E-9623-46AD-8676-790F5BE6DF03}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{EE31031E-7B43-44FB-A3B4-155A4E614B71}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{4B41201F-D114-4F1F-8A67-1190CA5B9749}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{94C65B13-AFB6-4829-8039-D861B9080ACC}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{FDCAF9A9-13C5-43FE-9F53-977655495CA1}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{20339EDF-5A54-413E-ADD6-251A96706F7C}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3463FA94-DDAA-4C67-B5A1-662A5685FCA2}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{F5729091-5DC6-4F92-9FF0-CB3A22A056C8}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{E8ABFB29-FE9E-491A-A961-FA6CF52564A5}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{ACCC2262-3785-463B-8DDB-3945AAB8C375}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{6EDF6530-B94D-4DD1-91AF-BA0CC5558A5F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{37CFCA89-7C04-43F1-A644-F78AD98CD030}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{16BADC67-670D-44BD-B676-239C461B8475}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5BFB31C4-51FF-400D-9A70-F2BB98314A7A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1276,7 +1276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B696138C-497C-4F96-9393-1D8050DE488B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095836A7-F98D-4082-81B8-1AA3DAC6D17F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2549,7 +2549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DB2E6C-A418-497D-B2B3-326478DEC066}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8894EF2-6B55-4690-ADC7-5D1AFFE40DA4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3828,7 +3828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0C3362-45D0-4386-87FE-FA214FF4545E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21DAB2B-328B-45E4-A706-1D99825C757D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5103,7 +5103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E76518-FB2A-468C-89B0-8AF4487AC2A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D219A99-D4E0-4D65-857B-C8A5D3422AAD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6372,7 +6372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56E6D9C-EE27-48AF-B086-ADFB4563E69B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5AC46A-1244-4FAC-825D-81E2EFDBA057}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7647,7 +7647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD32D6A-399F-4CBC-AE20-FC3421751C35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B89FB01-4BD7-4A77-AC16-63D92BA14C03}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8922,7 +8922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A4DDD8-76E9-4D8C-B9F5-E4CC41A7BC4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815A769F-1757-480A-B15E-D05F105B377C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10195,7 +10195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41FE44F-745F-4361-B992-D6AB7B010E18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0934C751-866A-4AC6-868C-D2D35AA4780A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11468,7 +11468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE787A91-CC10-410E-A6F4-DD0FD7139E8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5244F8-6C04-448E-A0BC-EF40F1322419}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12747,7 +12747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7535D98C-3B88-4E02-BC80-BC84C92DB5EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{207DF69F-3ED6-4523-B8CE-F0FB40CD228E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14028,7 +14028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48108269-D02B-4F55-AB65-95C15DACFBD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0AAC52-6D5F-44B4-B9D4-2E5A3F16306F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15303,7 +15303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3ABF69-1CB2-4B23-81A2-D505B3796FB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7B8B32-F012-4A54-8071-B2B3CFE4DA7C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
